--- a/Bonus/Pacing calc.xlsx
+++ b/Bonus/Pacing calc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIGNOIC\Dropbox\Files\Incremental\Ark\Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A62C0-979A-4095-868B-BEAF829E3994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C149FBD-B5A6-4C31-AA06-AB9F41611ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EC64960-ABDF-454F-ABE9-E97B6B1238F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Money" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Visiteurs </t>
   </si>
@@ -58,13 +59,85 @@
   </si>
   <si>
     <t>Gain per sec</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total money gained per second, all values taken into account</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>Price per visitor</t>
+  </si>
+  <si>
+    <t>Set Amount</t>
+  </si>
+  <si>
+    <t>visitorsPerSec</t>
+  </si>
+  <si>
+    <t>moneyPerSec</t>
+  </si>
+  <si>
+    <t>entryPrice</t>
+  </si>
+  <si>
+    <t>Number of visitors per second</t>
+  </si>
+  <si>
+    <t>reputation</t>
+  </si>
+  <si>
+    <t>= to reputation, or to maxParcCapacity if it's &gt;=</t>
+  </si>
+  <si>
+    <t>parcMaxCapacity</t>
+  </si>
+  <si>
+    <t>The global reputation of the parc</t>
+  </si>
+  <si>
+    <t>reputatPerSec</t>
+  </si>
+  <si>
+    <t>The reputation gained per second, all values taken into account</t>
+  </si>
+  <si>
+    <t>visitorsPerSec * enclosureBonus</t>
+  </si>
+  <si>
+    <t>visitorsPerSec * entryPrice</t>
+  </si>
+  <si>
+    <t>Maximum number of visitors per second</t>
+  </si>
+  <si>
+    <t>Fixed amount</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>Amount of money in bank</t>
+  </si>
+  <si>
+    <t>Ressources</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +151,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,17 +194,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +525,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2072DFF3-EB80-424B-A711-A3D124FB111E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7568BF-A0EA-40CC-94E8-19B89361DAB6}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -437,10 +655,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
@@ -474,11 +692,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f>G5*(SUM($C$9:$C$13))</f>
         <v>0.75</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f>G5+F6</f>
         <v>2.25</v>
       </c>
@@ -490,21 +708,21 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" ref="F7:F19" si="0">G6*(SUM($C$9:$C$13))</f>
         <v>1.125</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" ref="G7:G19" si="1">G6+F7</f>
         <v>3.375</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>5.0625</v>
       </c>
@@ -516,11 +734,11 @@
       <c r="C9">
         <v>0.2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>2.53125</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>7.59375</v>
       </c>
@@ -532,101 +750,101 @@
       <c r="C10">
         <v>0.3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>3.796875</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>11.390625</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>5.6953125</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>17.0859375</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>8.54296875</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>25.62890625</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>12.814453125</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>38.443359375</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>19.2216796875</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>57.6650390625</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>28.83251953125</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>86.49755859375</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>43.248779296875</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>129.746337890625</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>64.8731689453125</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>194.6195068359375</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>97.30975341796875</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>291.92926025390625</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>145.96463012695313</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>437.89389038085938</v>
       </c>

--- a/Bonus/Pacing calc.xlsx
+++ b/Bonus/Pacing calc.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIGNOIC\Dropbox\Files\Incremental\Ark\Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C149FBD-B5A6-4C31-AA06-AB9F41611ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B82DE43-AB81-4437-9D7A-4EF3B9E36329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EC64960-ABDF-454F-ABE9-E97B6B1238F2}"/>
+    <workbookView xWindow="20370" yWindow="-2670" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{8EC64960-ABDF-454F-ABE9-E97B6B1238F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Money" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Entry price" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Visiteurs </t>
   </si>
@@ -100,9 +102,6 @@
     <t>parcMaxCapacity</t>
   </si>
   <si>
-    <t>The global reputation of the parc</t>
-  </si>
-  <si>
     <t>reputatPerSec</t>
   </si>
   <si>
@@ -124,13 +123,37 @@
     <t>money</t>
   </si>
   <si>
-    <t>Amount of money in bank</t>
-  </si>
-  <si>
     <t>Ressources</t>
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>attractivity</t>
+  </si>
+  <si>
+    <t>Indicateurs</t>
+  </si>
+  <si>
+    <t>La réputation globale du parc, cette ressource peut être utilisée pour acheter différents avantages</t>
+  </si>
+  <si>
+    <t>La quantité d'argent disponible, peut être utilisée pour acheter différents éléments</t>
+  </si>
+  <si>
+    <t>La capacité du parc à attirer de nouveaux visiteurs</t>
+  </si>
+  <si>
+    <t>attractivity of all enclosures / entryPrice</t>
+  </si>
+  <si>
+    <t>Entry Price</t>
+  </si>
+  <si>
+    <t>% of price</t>
+  </si>
+  <si>
+    <t>Exposant :</t>
   </si>
 </sst>
 </file>
@@ -160,6 +183,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,16 +226,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,54 +557,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2072DFF3-EB80-424B-A711-A3D124FB111E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="8"/>
@@ -581,60 +613,83 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -655,10 +710,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
@@ -857,4 +912,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210E7205-A602-4476-89BE-189715F580FD}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f>1/A3^$E$1</f>
+        <v>0.35355339059327379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B11" si="0">1/A4^$E$1</f>
+        <v>0.19245008972987526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12500000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>8.9442719099991616E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>6.8041381743977156E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3994924715603902E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4194173824159244E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683784E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bonus/Pacing calc.xlsx
+++ b/Bonus/Pacing calc.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIGNOIC\Dropbox\Files\Incremental\Ark\Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B82DE43-AB81-4437-9D7A-4EF3B9E36329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1958F35-5470-4B74-90C9-78BD5D4C7F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2670" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{8EC64960-ABDF-454F-ABE9-E97B6B1238F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8EC64960-ABDF-454F-ABE9-E97B6B1238F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Money" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
-    <sheet name="Entry price" sheetId="3" r:id="rId3"/>
+    <sheet name="Entry price" sheetId="3" r:id="rId2"/>
+    <sheet name="Herd Multi" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,31 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">Visiteurs </t>
-  </si>
-  <si>
-    <t>Réputation</t>
-  </si>
-  <si>
-    <t>Entry Cost</t>
-  </si>
-  <si>
-    <t>Enclos 1</t>
-  </si>
-  <si>
-    <t>Enclos 2</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Cumul</t>
-  </si>
-  <si>
-    <t>Gain per sec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -154,22 +129,28 @@
   </si>
   <si>
     <t>Exposant :</t>
+  </si>
+  <si>
+    <t>Herd multiplier</t>
+  </si>
+  <si>
+    <t>Effectif</t>
+  </si>
+  <si>
+    <t>Final Attrac</t>
+  </si>
+  <si>
+    <t>Base Attrac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,17 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -237,11 +212,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,118 +542,118 @@
     <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -696,333 +668,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7568BF-A0EA-40CC-94E8-19B89361DAB6}">
-  <dimension ref="B3:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>C6</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <f>C5*(SUM($C$9:$C$13))</f>
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
-        <f>C5+F5</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <f>G5*(SUM($C$9:$C$13))</f>
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="2">
-        <f>G5+F6</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:F19" si="0">G6*(SUM($C$9:$C$13))</f>
-        <v>1.125</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ref="G7:G19" si="1">G6+F7</f>
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6875</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>5.0625</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.53125</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>7.59375</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.796875</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>11.390625</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6953125</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>17.0859375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>8.54296875</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>25.62890625</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>12.814453125</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>38.443359375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>19.2216796875</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>57.6650390625</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>28.83251953125</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>86.49755859375</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>43.248779296875</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>129.746337890625</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>64.8731689453125</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>194.6195068359375</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>97.30975341796875</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>291.92926025390625</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>145.96463012695313</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>437.89389038085938</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210E7205-A602-4476-89BE-189715F580FD}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>37</v>
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E1">
         <v>1.5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <f>1/A3^$E$1</f>
         <v>0.35355339059327379</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <f t="shared" ref="B4:B11" si="0">1/A4^$E$1</f>
         <v>0.19245008972987526</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>0.12500000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>8.9442719099991616E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>6.8041381743977156E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>5.3994924715603902E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>4.4194173824159244E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>3.1622776601683784E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FE6011-246A-4907-B461-87A092F4D52C}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>1.05</v>
+      </c>
+      <c r="E2">
+        <f>C2^C3</f>
+        <v>1.2762815625000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <f>C5*C3*E2</f>
+        <v>6.3814078125000009</v>
       </c>
     </row>
   </sheetData>
